--- a/BattleTest1 Excels.xlsx
+++ b/BattleTest1 Excels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golde\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golde\OneDrive\문서\GitHub\BattleTest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C264116-93EB-4AF6-9B25-86092A49AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156F4B2-4011-4290-A1E0-79459F201A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C3262F61-5D64-4CF6-A866-4C818BAD46F0}"/>
   </bookViews>
@@ -414,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8900938-F6EC-4E8C-AC90-C2BD470BAC08}">
-  <dimension ref="C5:J42"/>
+  <dimension ref="C5:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>1</v>
       </c>
@@ -449,8 +449,11 @@
         <f>I5+0.5</f>
         <v>2.2320508075688772</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>2</v>
       </c>
@@ -471,368 +474,425 @@
         <v>2.598076211353316</v>
       </c>
       <c r="I6">
-        <f>$I$5*D6</f>
+        <f t="shared" ref="I6:I27" si="0">$I$5*D6</f>
         <v>3.4641016151377544</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J27" si="0">I6+0.5</f>
+        <f t="shared" ref="J6:J27" si="1">I6+0.5</f>
         <v>3.9641016151377544</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>3</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H27" si="1">$H$5+I6</f>
+        <f t="shared" ref="H7:H27" si="2">$H$5+I6</f>
         <v>4.3301270189221928</v>
       </c>
       <c r="I7">
-        <f>$I$5*D7</f>
+        <f t="shared" si="0"/>
         <v>5.196152422706632</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.696152422706632</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>4</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0621778264910704</v>
       </c>
       <c r="I8">
-        <f>$I$5*D8</f>
+        <f t="shared" si="0"/>
         <v>6.9282032302755088</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4282032302755088</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7942286340599471</v>
       </c>
       <c r="I9">
-        <f>$I$5*D9</f>
+        <f t="shared" si="0"/>
         <v>8.6602540378443855</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1602540378443855</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>6</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5262794416288248</v>
       </c>
       <c r="I10">
-        <f>$I$5*D10</f>
+        <f t="shared" si="0"/>
         <v>10.392304845413264</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.892304845413264</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>7</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.258330249197703</v>
       </c>
       <c r="I11">
-        <f>$I$5*D11</f>
+        <f t="shared" si="0"/>
         <v>12.124355652982141</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.624355652982141</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.99038105676658</v>
       </c>
       <c r="I12">
-        <f>$I$5*D12</f>
+        <f t="shared" si="0"/>
         <v>13.856406460551018</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.356406460551018</v>
       </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>9</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.722431864335457</v>
       </c>
       <c r="I13">
-        <f>$I$5*D13</f>
+        <f t="shared" si="0"/>
         <v>15.588457268119894</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.088457268119896</v>
       </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>10</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.454482671904334</v>
       </c>
       <c r="I14">
-        <f>$I$5*D14</f>
+        <f t="shared" si="0"/>
         <v>17.320508075688771</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.820508075688771</v>
       </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>11</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.186533479473209</v>
       </c>
       <c r="I15">
-        <f>$I$5*D15</f>
+        <f t="shared" si="0"/>
         <v>19.05255888325765</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.55255888325765</v>
       </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>12</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.918584287042087</v>
       </c>
       <c r="I16">
-        <f>$I$5*D16</f>
+        <f t="shared" si="0"/>
         <v>20.784609690826528</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.284609690826528</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>13</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.650635094610966</v>
       </c>
       <c r="I17">
-        <f>$I$5*D17</f>
+        <f t="shared" si="0"/>
         <v>22.516660498395403</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.016660498395403</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>14</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.382685902179841</v>
       </c>
       <c r="I18">
-        <f>$I$5*D18</f>
+        <f t="shared" si="0"/>
         <v>24.248711305964282</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.748711305964282</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>15</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.114736709748719</v>
       </c>
       <c r="I19">
-        <f>$I$5*D19</f>
+        <f t="shared" si="0"/>
         <v>25.980762113533157</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.480762113533157</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>16</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.846787517317594</v>
       </c>
       <c r="I20">
-        <f>$I$5*D20</f>
+        <f t="shared" si="0"/>
         <v>27.712812921102035</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.212812921102035</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>17</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.578838324886473</v>
       </c>
       <c r="I21">
-        <f>$I$5*D21</f>
+        <f t="shared" si="0"/>
         <v>29.444863728670914</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.944863728670914</v>
       </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>18</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.310889132455351</v>
       </c>
       <c r="I22">
-        <f>$I$5*D22</f>
+        <f t="shared" si="0"/>
         <v>31.176914536239789</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.676914536239789</v>
       </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>19</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.042939940024226</v>
       </c>
       <c r="I23">
-        <f>$I$5*D23</f>
+        <f t="shared" si="0"/>
         <v>32.908965343808667</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.408965343808667</v>
       </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>20</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.774990747593108</v>
       </c>
       <c r="I24">
-        <f>$I$5*D24</f>
+        <f t="shared" si="0"/>
         <v>34.641016151377542</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.141016151377542</v>
       </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>21</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.507041555161983</v>
       </c>
       <c r="I25">
-        <f>$I$5*D25</f>
+        <f t="shared" si="0"/>
         <v>36.373066958946424</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.873066958946424</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>22</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.239092362730865</v>
       </c>
       <c r="I26">
-        <f>$I$5*D26</f>
+        <f t="shared" si="0"/>
         <v>38.105117766515299</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.605117766515299</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>23</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.97114317029974</v>
       </c>
       <c r="I27">
-        <f>$I$5*D27</f>
+        <f t="shared" si="0"/>
         <v>39.837168574084174</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.337168574084174</v>
       </c>
     </row>

--- a/BattleTest1 Excels.xlsx
+++ b/BattleTest1 Excels.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golde\OneDrive\문서\GitHub\BattleTest1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimnuri\Documents\GitHub\BattleTest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156F4B2-4011-4290-A1E0-79459F201A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA4907-6B14-4378-A2A1-762BA1C8819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C3262F61-5D64-4CF6-A866-4C818BAD46F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C3262F61-5D64-4CF6-A866-4C818BAD46F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TileLocation" sheetId="1" r:id="rId1"/>
+    <sheet name="RerollPercent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,13 +446,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8900938-F6EC-4E8C-AC90-C2BD470BAC08}">
   <dimension ref="C5:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>1</v>
       </c>
@@ -453,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>2</v>
       </c>
@@ -485,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D7">
         <v>3</v>
       </c>
@@ -505,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>4</v>
       </c>
@@ -525,7 +555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>5</v>
       </c>
@@ -545,7 +575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D10">
         <v>6</v>
       </c>
@@ -565,7 +595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D11">
         <v>7</v>
       </c>
@@ -585,7 +615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D12">
         <v>8</v>
       </c>
@@ -605,7 +635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>9</v>
       </c>
@@ -625,7 +655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>10</v>
       </c>
@@ -645,7 +675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>11</v>
       </c>
@@ -665,7 +695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>12</v>
       </c>
@@ -685,7 +715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D17">
         <v>13</v>
       </c>
@@ -705,7 +735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D18">
         <v>14</v>
       </c>
@@ -725,7 +755,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D19">
         <v>15</v>
       </c>
@@ -745,7 +775,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D20">
         <v>16</v>
       </c>
@@ -765,7 +795,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D21">
         <v>17</v>
       </c>
@@ -785,7 +815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D22">
         <v>18</v>
       </c>
@@ -805,7 +835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D23">
         <v>19</v>
       </c>
@@ -825,7 +855,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D24">
         <v>20</v>
       </c>
@@ -845,7 +875,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D25">
         <v>21</v>
       </c>
@@ -862,7 +892,7 @@
         <v>36.873066958946424</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D26">
         <v>22</v>
       </c>
@@ -879,7 +909,7 @@
         <v>38.605117766515299</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D27">
         <v>23</v>
       </c>
@@ -896,7 +926,7 @@
         <v>40.337168574084174</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C35">
         <v>1</v>
       </c>
@@ -922,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C36">
         <v>2</v>
       </c>
@@ -945,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C37">
         <v>3</v>
       </c>
@@ -953,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C38">
         <v>4</v>
       </c>
@@ -961,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C39">
         <v>5</v>
       </c>
@@ -969,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C40">
         <v>6</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C41">
         <v>7</v>
       </c>
@@ -985,9 +1015,662 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C42">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC8F939-4828-43E3-8E0E-F3233C2D006D}">
+  <dimension ref="C2:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>D3 / 100 * 90</f>
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <f>F2*E3/100</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>9</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>C7*$F$3</f>
+        <v>3600</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:W11" si="0">D7*$F$3</f>
+        <v>3600</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N11" si="1">C8*$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>972</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>100</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="N16">
+        <f>SUM(N7:N15)</f>
+        <v>4000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:W16" si="2">SUM(O7:O15)</f>
+        <v>4000</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/BattleTest1 Excels.xlsx
+++ b/BattleTest1 Excels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimnuri\Documents\GitHub\BattleTest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA4907-6B14-4378-A2A1-762BA1C8819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C50EF-E629-4502-91B6-50436A05FF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C3262F61-5D64-4CF6-A866-4C818BAD46F0}"/>
   </bookViews>
@@ -37,29 +37,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>c</t>
+    <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u</t>
+    <t>Uncommon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
+    <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
+    <t>Epic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>l</t>
+    <t>Legend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
+    <t>Relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,7 +1047,7 @@
   <dimension ref="C2:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1493,7 +1509,7 @@
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>100</v>
@@ -1528,7 +1544,7 @@
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>100</v>
@@ -1563,7 +1579,7 @@
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -1598,7 +1614,7 @@
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -1632,6 +1648,9 @@
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
       <c r="N16">
         <f>SUM(N7:N15)</f>
         <v>4000</v>
